--- a/DTAC-SOURCE-TO-TARGET-MAPPING_SET2.xlsx
+++ b/DTAC-SOURCE-TO-TARGET-MAPPING_SET2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\AEP_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338D4747-E4A3-47C7-9141-E7131F127DA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7869492-ABFF-4376-BE99-FA545A0A832F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBS" sheetId="52" r:id="rId1"/>
@@ -16483,7 +16483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -17347,7 +17347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:J19"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -18253,9 +18253,9 @@
   </sheetPr>
   <dimension ref="A1:V411"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H227" sqref="H227:H237"/>
+      <selection pane="bottomLeft" activeCell="B238" sqref="B238:B354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -39594,7 +39594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -39690,7 +39690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>22</v>
       </c>
@@ -39740,7 +39740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>22</v>
       </c>
@@ -39784,7 +39784,7 @@
       <c r="U3" s="43"/>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>22</v>
       </c>
@@ -39828,7 +39828,7 @@
       <c r="U4" s="43"/>
       <c r="V4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>22</v>
       </c>
@@ -39872,7 +39872,7 @@
       <c r="U5" s="43"/>
       <c r="V5" s="18"/>
     </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>22</v>
       </c>
@@ -39916,7 +39916,7 @@
       <c r="U6" s="43"/>
       <c r="V6" s="18"/>
     </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>22</v>
       </c>
@@ -39960,7 +39960,7 @@
       <c r="U7" s="43"/>
       <c r="V7" s="18"/>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
@@ -40004,7 +40004,7 @@
       <c r="U8" s="43"/>
       <c r="V8" s="18"/>
     </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>22</v>
       </c>
@@ -40048,7 +40048,7 @@
       <c r="U9" s="43"/>
       <c r="V9" s="18"/>
     </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>22</v>
       </c>
@@ -40092,7 +40092,7 @@
       <c r="U10" s="43"/>
       <c r="V10" s="18"/>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>22</v>
       </c>
@@ -40136,7 +40136,7 @@
       <c r="U11" s="43"/>
       <c r="V11" s="18"/>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>22</v>
       </c>
@@ -40180,7 +40180,7 @@
       <c r="U12" s="43"/>
       <c r="V12" s="18"/>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>22</v>
       </c>
@@ -40224,7 +40224,7 @@
       <c r="U13" s="43"/>
       <c r="V13" s="18"/>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>22</v>
       </c>
@@ -40268,7 +40268,7 @@
       <c r="U14" s="43"/>
       <c r="V14" s="18"/>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>22</v>
       </c>
@@ -40312,7 +40312,7 @@
       <c r="U15" s="43"/>
       <c r="V15" s="18"/>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>22</v>
       </c>
@@ -40356,7 +40356,7 @@
       <c r="U16" s="43"/>
       <c r="V16" s="18"/>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>22</v>
       </c>
@@ -40400,7 +40400,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="18"/>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>22</v>
       </c>
@@ -40444,7 +40444,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="18"/>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>22</v>
       </c>
@@ -40488,7 +40488,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="18"/>
     </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>22</v>
       </c>
@@ -40532,7 +40532,7 @@
       <c r="U20" s="43"/>
       <c r="V20" s="18"/>
     </row>
-    <row r="21" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -40570,7 +40570,7 @@
       <c r="U21" s="43"/>
       <c r="V21" s="18"/>
     </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -40608,7 +40608,7 @@
       <c r="U22" s="43"/>
       <c r="V22" s="18"/>
     </row>
-    <row r="23" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="19"/>
       <c r="C23" s="16"/>
@@ -40646,7 +40646,7 @@
       <c r="U23" s="43"/>
       <c r="V23" s="18"/>
     </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="19"/>
       <c r="C24" s="16"/>
@@ -40686,7 +40686,7 @@
       <c r="U24" s="43"/>
       <c r="V24" s="18"/>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="19"/>
       <c r="C25" s="16"/>
@@ -40748,9 +40748,9 @@
   </sheetPr>
   <dimension ref="A1:V282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -52753,7 +52753,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
